--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_zero.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.13977412743074094</v>
+        <v>0.13977412741773182</v>
       </c>
       <c r="C2">
-        <v>1.4292261578264054</v>
+        <v>1.429226157835731</v>
       </c>
       <c r="D2">
-        <v>1.3602555876840654</v>
+        <v>1.3602555876711675</v>
       </c>
       <c r="E2">
-        <v>3.2076404113111114</v>
+        <v>3.2076404112675982</v>
       </c>
       <c r="F2">
-        <v>0.79681126978854089</v>
+        <v>0.79681126963260729</v>
       </c>
       <c r="G2">
-        <v>0.14392031858114224</v>
+        <v>0.14392031860158863</v>
       </c>
       <c r="H2">
-        <v>0.68848742944321173</v>
+        <v>0.68848742945493624</v>
       </c>
       <c r="I2">
-        <v>1.7863359374250158</v>
+        <v>1.7863359373728578</v>
       </c>
       <c r="J2">
-        <v>1.9636109603306016</v>
+        <v>1.9636109606547782</v>
       </c>
       <c r="K2">
-        <v>0.42733266362931183</v>
+        <v>0.42733266363548583</v>
       </c>
       <c r="L2">
-        <v>0.54970255414534552</v>
+        <v>0.54970255418193137</v>
       </c>
       <c r="M2">
-        <v>-1.4197314239424785</v>
+        <v>-1.419731423992399</v>
       </c>
       <c r="N2">
-        <v>1.8752312448138873</v>
+        <v>1.8752312447619621</v>
       </c>
       <c r="O2">
-        <v>0.92968619103781447</v>
+        <v>0.92968619103666639</v>
       </c>
       <c r="P2">
-        <v>2.4057324916241685</v>
+        <v>2.4057324916052716</v>
       </c>
       <c r="Q2">
-        <v>-0.34800658003811952</v>
+        <v>-0.34800658002856372</v>
       </c>
       <c r="R2">
-        <v>-1.5036895118148401</v>
+        <v>-1.5036895116748712</v>
       </c>
       <c r="S2">
-        <v>4.1735052062033269</v>
+        <v>4.173505206151968</v>
       </c>
       <c r="T2">
-        <v>2.9031096960423772</v>
+        <v>2.9031096959776641</v>
       </c>
       <c r="U2">
-        <v>-0.79159078811425809</v>
+        <v>-0.79159078807098315</v>
       </c>
       <c r="V2">
-        <v>0.31350279096465955</v>
+        <v>0.31350279091122712</v>
       </c>
       <c r="W2">
-        <v>-2.1335007910607584</v>
+        <v>-2.1335007908764814</v>
       </c>
       <c r="X2">
-        <v>-0.32310828519878992</v>
+        <v>-0.32310828511575257</v>
       </c>
       <c r="Y2">
-        <v>2.7695657204946493</v>
+        <v>2.7695657204830164</v>
       </c>
       <c r="Z2">
-        <v>1.4349346803785505</v>
+        <v>1.434934680351474</v>
       </c>
       <c r="AA2">
-        <v>1.6978203675517038</v>
+        <v>1.6978203684840862</v>
       </c>
       <c r="AB2">
-        <v>0.97454908288541886</v>
+        <v>0.97454908289286613</v>
       </c>
       <c r="AC2">
-        <v>-0.74841051997427066</v>
+        <v>-0.7484105199766995</v>
       </c>
       <c r="AD2">
-        <v>2.7542711254372758</v>
+        <v>2.754271125423438</v>
       </c>
       <c r="AE2">
-        <v>0.61335249623452381</v>
+        <v>0.6133524961787169</v>
       </c>
       <c r="AF2">
-        <v>1.4609810853118035</v>
+        <v>1.4609810852089873</v>
       </c>
       <c r="AG2">
-        <v>1.291744703563747</v>
+        <v>1.2917447038163652</v>
       </c>
       <c r="AH2">
-        <v>1.6298746340919408</v>
+        <v>1.6298746341865726</v>
       </c>
       <c r="AI2">
-        <v>1.9140120886022345</v>
+        <v>1.914012088571214</v>
       </c>
       <c r="AJ2">
-        <v>1.2552095984797824</v>
+        <v>1.2552095985306009</v>
       </c>
       <c r="AK2">
-        <v>1.6306925825610192</v>
+        <v>1.6306925825383956</v>
       </c>
       <c r="AL2">
-        <v>-1.1799208628279969</v>
+        <v>-1.179920862785512</v>
       </c>
       <c r="AM2">
-        <v>1.2385613962778979</v>
+        <v>1.2385613962985595</v>
       </c>
       <c r="AN2">
-        <v>1.7526156087557743</v>
+        <v>1.7526156087365008</v>
       </c>
       <c r="AO2">
-        <v>3.2882385287671521</v>
+        <v>3.2882385288617901</v>
       </c>
       <c r="AP2">
-        <v>2.041602911171589</v>
+        <v>2.0416029111040994</v>
       </c>
       <c r="AQ2">
-        <v>-1.4615611087067222</v>
+        <v>-1.4615611087034994</v>
       </c>
       <c r="AR2">
-        <v>3.4939887080268308</v>
+        <v>3.4939887091093795</v>
       </c>
       <c r="AS2">
-        <v>2.4211509250714478</v>
+        <v>2.4211509256968085</v>
       </c>
       <c r="AT2">
-        <v>0.78109473522985284</v>
+        <v>0.78109473521565342</v>
       </c>
       <c r="AU2">
-        <v>1.7715082257809922</v>
+        <v>1.7715082258173622</v>
       </c>
       <c r="AV2">
-        <v>-0.63396941915265215</v>
+        <v>-0.63396941908991666</v>
       </c>
       <c r="AW2">
-        <v>9.7927277078994526E-2</v>
+        <v>9.7927277123810941E-2</v>
       </c>
       <c r="AX2">
-        <v>2.2851561810363057</v>
+        <v>2.2851561810231114</v>
       </c>
       <c r="AY2">
-        <v>3.4570750226215545</v>
+        <v>3.4570750226048101</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.61676943241969273</v>
+        <v>0.61676943240314208</v>
       </c>
       <c r="C3">
-        <v>0.27033095020880871</v>
+        <v>0.27033095020388809</v>
       </c>
       <c r="D3">
-        <v>2.4916576722180501</v>
+        <v>2.4916576722793056</v>
       </c>
       <c r="E3">
-        <v>1.4805791892884945</v>
+        <v>1.4805791964959112</v>
       </c>
       <c r="F3">
-        <v>0.58891552971710626</v>
+        <v>0.58891552974326655</v>
       </c>
       <c r="G3">
-        <v>1.7936975938268409</v>
+        <v>1.7936975938959048</v>
       </c>
       <c r="H3">
-        <v>-1.1129199868808286</v>
+        <v>-1.1129199868883548</v>
       </c>
       <c r="I3">
-        <v>0.41271179231588634</v>
+        <v>0.41271179231258542</v>
       </c>
       <c r="J3">
-        <v>2.2213400307101385</v>
+        <v>2.2213400307359583</v>
       </c>
       <c r="K3">
-        <v>4.4787021555658519</v>
+        <v>4.4787021555995645</v>
       </c>
       <c r="L3">
-        <v>2.1997183850089259</v>
+        <v>2.1997183850015309</v>
       </c>
       <c r="M3">
-        <v>-1.3370935588187324E-2</v>
+        <v>-1.3406403392970882E-2</v>
       </c>
       <c r="N3">
-        <v>0.97066010373149014</v>
+        <v>0.9706601037273147</v>
       </c>
       <c r="O3">
-        <v>-3.0273901839919701</v>
+        <v>-3.0273901839424933</v>
       </c>
       <c r="P3">
-        <v>1.5630711246004969</v>
+        <v>1.5630711246213049</v>
       </c>
       <c r="Q3">
-        <v>0.67439323545527274</v>
+        <v>0.67439323544258634</v>
       </c>
       <c r="R3">
-        <v>-0.71566236433457708</v>
+        <v>-0.71566236437726283</v>
       </c>
       <c r="S3">
-        <v>2.5811924816802332</v>
+        <v>2.5811924816713234</v>
       </c>
       <c r="T3">
-        <v>2.7493026639447731</v>
+        <v>2.7493026639830429</v>
       </c>
       <c r="U3">
-        <v>1.372617667861332</v>
+        <v>1.3726176678767761</v>
       </c>
       <c r="V3">
-        <v>1.4899448829595601</v>
+        <v>1.4899448828931894</v>
       </c>
       <c r="W3">
-        <v>-0.58669124403170148</v>
+        <v>-0.58669124386026961</v>
       </c>
       <c r="X3">
-        <v>-1.1475260242551495</v>
+        <v>-1.1475260242559153</v>
       </c>
       <c r="Y3">
-        <v>3.5483060040932579</v>
+        <v>3.5483060040768137</v>
       </c>
       <c r="Z3">
-        <v>1.7868846374638012</v>
+        <v>1.7868846375071912</v>
       </c>
       <c r="AA3">
-        <v>1.7899088222065416</v>
+        <v>1.7899088222389736</v>
       </c>
       <c r="AB3">
-        <v>1.5258054499253417</v>
+        <v>1.5258054499435905</v>
       </c>
       <c r="AC3">
-        <v>3.1923404923920513</v>
+        <v>3.1923404924772907</v>
       </c>
       <c r="AD3">
-        <v>2.9637154069276734</v>
+        <v>2.9637154069565295</v>
       </c>
       <c r="AE3">
-        <v>1.8275170367034923</v>
+        <v>1.8275170366572298</v>
       </c>
       <c r="AF3">
-        <v>1.2729462841386849</v>
+        <v>1.2729462841646442</v>
       </c>
       <c r="AG3">
-        <v>0.43781876569290074</v>
+        <v>0.43781876570864792</v>
       </c>
       <c r="AH3">
-        <v>5.3478842287311285E-2</v>
+        <v>5.34788424152658E-2</v>
       </c>
       <c r="AI3">
-        <v>6.8014786085306591</v>
+        <v>6.8014786088402515</v>
       </c>
       <c r="AJ3">
-        <v>2.5701790388688073</v>
+        <v>2.5701790389098247</v>
       </c>
       <c r="AK3">
-        <v>1.7678943371533524</v>
+        <v>1.7678943371663622</v>
       </c>
       <c r="AL3">
-        <v>1.0126748796137937</v>
+        <v>1.0126748796028933</v>
       </c>
       <c r="AM3">
-        <v>0.73228502519086458</v>
+        <v>0.73228502515329164</v>
       </c>
       <c r="AN3">
-        <v>-2.6652320648858732</v>
+        <v>-2.665232064850616</v>
       </c>
       <c r="AO3">
-        <v>2.318115309437581</v>
+        <v>2.3181153092190114</v>
       </c>
       <c r="AP3">
-        <v>-0.20765407602978611</v>
+        <v>-0.20765407580135226</v>
       </c>
       <c r="AQ3">
-        <v>1.0889558191970399</v>
+        <v>1.0889558194833096</v>
       </c>
       <c r="AR3">
-        <v>4.7602721243356791</v>
+        <v>4.7602721245546924</v>
       </c>
       <c r="AS3">
-        <v>1.9636019169654684</v>
+        <v>1.9636019169167362</v>
       </c>
       <c r="AT3">
-        <v>1.5450192891257961</v>
+        <v>1.5450192892234669</v>
       </c>
       <c r="AU3">
-        <v>0.98049624568044225</v>
+        <v>0.98049624583180761</v>
       </c>
       <c r="AV3">
-        <v>-0.25459294132478483</v>
+        <v>-0.25459294117791037</v>
       </c>
       <c r="AW3">
-        <v>-0.44794427636978473</v>
+        <v>-0.44794427644903234</v>
       </c>
       <c r="AX3">
-        <v>1.4381767131228393</v>
+        <v>1.4381767131702292</v>
       </c>
       <c r="AY3">
-        <v>4.0974127899459276</v>
+        <v>4.0974127899335633</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_zero.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>0.13977412741773182</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.429226157835731</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.3602555876711675</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3.2076404112675982</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.79681126963260729</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.14392031860158863</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.68848742945493624</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.7863359373728578</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.9636109606547782</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.42733266363548583</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.54970255418193137</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-1.419731423992399</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.8752312447619621</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.92968619103666639</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2.4057324916052716</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-0.34800658002856372</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-1.5036895116748712</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>4.173505206151968</v>
+        <v>2.9720855903018846</v>
       </c>
       <c r="T2">
         <v>2.9031096959776641</v>
@@ -573,7 +462,7 @@
         <v>-0.79159078807098315</v>
       </c>
       <c r="V2">
-        <v>0.31350279091122712</v>
+        <v>0.3966615549696984</v>
       </c>
       <c r="W2">
         <v>-2.1335007908764814</v>
@@ -588,55 +477,55 @@
         <v>1.434934680351474</v>
       </c>
       <c r="AA2">
-        <v>1.6978203684840862</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.97454908289286613</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-0.7484105199766995</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>2.754271125423438</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.6133524961787169</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.4609810852089873</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.2917447038163652</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.6298746341865726</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.914012088571214</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.2552095985306009</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.6306925825383956</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-1.179920862785512</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1.2385613962985595</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.7526156087365008</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>3.2882385288617901</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.0416029111040994</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-1.4615611087034994</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>3.4939887091093795</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>0.61676943240314208</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.27033095020388809</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.4916576722793056</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.4805791964959112</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.58891552974326655</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.7936975938959048</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-1.1129199868883548</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.41271179231258542</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2.2213400307359583</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4.4787021555995645</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.1997183850015309</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-1.3406403392970882E-2</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9706601037273147</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-3.0273901839424933</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.5630711246213049</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.67439323544258634</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-0.71566236437726283</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>2.5811924816713234</v>
@@ -743,55 +629,55 @@
         <v>1.7868846375071912</v>
       </c>
       <c r="AA3">
-        <v>1.7899088222389736</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>1.5258054499435905</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>3.1923404924772907</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>2.9637154069565295</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.8275170366572298</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.2729462841646442</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.43781876570864792</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>5.34788424152658E-2</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>6.8014786088402515</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>2.5701790389098247</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1.7678943371663622</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.0126748796028933</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.73228502515329164</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-2.665232064850616</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>2.3181153092190114</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-0.20765407580135226</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.0889558194833096</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>4.7602721245546924</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_zero.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.13977412743074094</v>
-      </c>
       <c r="C2">
-        <v>0.66123400673061106</v>
-      </c>
-      <c r="D2">
-        <v>1.3602555876840654</v>
+        <v>-1.5036895116748712</v>
       </c>
       <c r="E2">
-        <v>3.2076404113111114</v>
+        <v>-1.4615611087034994</v>
       </c>
       <c r="F2">
         <v>0.79681126978854089</v>
@@ -673,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.61676943241969273</v>
+        <v>-2.087878713081964</v>
       </c>
       <c r="C3">
-        <v>0.27033095020880871</v>
+        <v>-0.71566236437726283</v>
       </c>
       <c r="D3">
-        <v>2.4916576722180501</v>
+        <v>-2.561795311586474</v>
       </c>
       <c r="E3">
-        <v>1.4805791892884945</v>
+        <v>1.6914956341777456</v>
       </c>
       <c r="F3">
         <v>0.58891552971710626</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_zero.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.13977412743074094</v>
-      </c>
-      <c r="C2">
-        <v>0.66123400673061106</v>
+        <v>1.5060282168894319</v>
       </c>
       <c r="D2">
-        <v>1.3602555876840654</v>
-      </c>
-      <c r="E2">
-        <v>3.2076404113111114</v>
+        <v>1.2385613962985595</v>
       </c>
       <c r="F2">
         <v>0.79681126978854089</v>
@@ -664,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.61676943241969273</v>
+        <v>0.9706601037273147</v>
       </c>
       <c r="C3">
-        <v>0.27033095020880871</v>
+        <v>-2.087878713081964</v>
       </c>
       <c r="D3">
-        <v>2.4916576722180501</v>
+        <v>0.73228502515329164</v>
       </c>
       <c r="E3">
-        <v>2.600839901327006</v>
+        <v>-2.561795311586474</v>
       </c>
       <c r="F3">
         <v>0.58891552971710626</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_zero.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,139 +513,145 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>0.13977412741773182</v>
+      </c>
+      <c r="C2">
+        <v>0.66123400672009192</v>
+      </c>
+      <c r="D2">
+        <v>1.3602555876711675</v>
+      </c>
+      <c r="E2">
+        <v>3.2076404112675982</v>
+      </c>
+      <c r="F2">
+        <v>0.79681126963260729</v>
+      </c>
+      <c r="G2">
+        <v>0.59512707478512761</v>
+      </c>
+      <c r="H2">
+        <v>0.68848742945493624</v>
+      </c>
+      <c r="I2">
+        <v>2.1589984126478972</v>
+      </c>
+      <c r="J2">
+        <v>1.9636109606547782</v>
+      </c>
+      <c r="K2">
+        <v>0.42733266363548583</v>
+      </c>
+      <c r="L2">
+        <v>0.2404210519184177</v>
+      </c>
+      <c r="M2">
+        <v>-0.29606332285727105</v>
+      </c>
+      <c r="N2">
         <v>1.5060282168894319</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>2.5605282450808478</v>
+      </c>
+      <c r="Q2">
+        <v>-0.34800658002856372</v>
+      </c>
+      <c r="R2">
+        <v>-1.5036895116748712</v>
+      </c>
+      <c r="T2">
+        <v>2.4152058466589805</v>
+      </c>
+      <c r="U2">
+        <v>-0.79159078807098315</v>
+      </c>
+      <c r="V2">
+        <v>0.84692259014484927</v>
+      </c>
+      <c r="W2">
+        <v>-2.1335007908764814</v>
+      </c>
+      <c r="X2">
+        <v>-0.32310828511575257</v>
+      </c>
+      <c r="Y2">
+        <v>2.7695657204830164</v>
+      </c>
+      <c r="Z2">
+        <v>1.434934680351474</v>
+      </c>
+      <c r="AA2">
+        <v>1.6978203684840862</v>
+      </c>
+      <c r="AB2">
+        <v>0.97454908289286613</v>
+      </c>
+      <c r="AC2">
+        <v>-0.7484105199766995</v>
+      </c>
+      <c r="AD2">
+        <v>2.754271125423438</v>
+      </c>
+      <c r="AE2">
+        <v>0.6133524961787169</v>
+      </c>
+      <c r="AF2">
+        <v>1.4609810852089873</v>
+      </c>
+      <c r="AG2">
+        <v>1.2917447038163652</v>
+      </c>
+      <c r="AH2">
+        <v>1.6298746341865726</v>
+      </c>
+      <c r="AI2">
+        <v>1.914012088571214</v>
+      </c>
+      <c r="AJ2">
+        <v>1.2552095985306009</v>
+      </c>
+      <c r="AK2">
+        <v>1.6306925825383956</v>
+      </c>
+      <c r="AL2">
+        <v>-1.179920862785512</v>
+      </c>
+      <c r="AM2">
         <v>1.2385613962985595</v>
       </c>
-      <c r="F2">
-        <v>0.79681126978854089</v>
-      </c>
-      <c r="G2">
-        <v>0.59512707482691318</v>
-      </c>
-      <c r="H2">
-        <v>0.68848742944321173</v>
-      </c>
-      <c r="I2">
-        <v>2.1589984123630135</v>
-      </c>
-      <c r="J2">
-        <v>1.9636109603306016</v>
-      </c>
-      <c r="K2">
-        <v>0.42733266362931183</v>
-      </c>
-      <c r="L2">
-        <v>0.24042105192230936</v>
-      </c>
-      <c r="M2">
-        <v>-0.29606332292032905</v>
-      </c>
-      <c r="N2">
-        <v>1.506028216701701</v>
-      </c>
-      <c r="P2">
-        <v>2.5605282451483373</v>
-      </c>
-      <c r="Q2">
-        <v>-0.34800658003811952</v>
-      </c>
-      <c r="R2">
-        <v>-1.5036895118148401</v>
-      </c>
-      <c r="T2">
-        <v>2.4152058466059065</v>
-      </c>
-      <c r="U2">
-        <v>-0.79159078811425809</v>
-      </c>
-      <c r="V2">
-        <v>0.84692259014189453</v>
-      </c>
-      <c r="W2">
-        <v>-2.1335007910607584</v>
-      </c>
-      <c r="X2">
-        <v>-0.32310828519878992</v>
-      </c>
-      <c r="Y2">
-        <v>2.7695657204946493</v>
-      </c>
-      <c r="Z2">
-        <v>1.4349346803785505</v>
-      </c>
-      <c r="AA2">
-        <v>1.6978203675517038</v>
-      </c>
-      <c r="AB2">
-        <v>0.97454908288541886</v>
-      </c>
-      <c r="AC2">
-        <v>-0.74841051997427066</v>
-      </c>
-      <c r="AD2">
-        <v>2.7542711254372758</v>
-      </c>
-      <c r="AE2">
-        <v>0.61335249623452381</v>
-      </c>
-      <c r="AF2">
-        <v>1.4609810853118035</v>
-      </c>
-      <c r="AG2">
-        <v>1.291744703563747</v>
-      </c>
-      <c r="AH2">
-        <v>1.6298746340919408</v>
-      </c>
-      <c r="AI2">
-        <v>1.9140120886022345</v>
-      </c>
-      <c r="AJ2">
-        <v>1.2552095984797824</v>
-      </c>
-      <c r="AK2">
-        <v>1.6306925825610192</v>
-      </c>
-      <c r="AL2">
-        <v>-1.1799208628279969</v>
-      </c>
-      <c r="AM2">
-        <v>1.2385613962778979</v>
-      </c>
       <c r="AO2">
-        <v>3.2882385287671521</v>
+        <v>3.2882385288617901</v>
       </c>
       <c r="AP2">
-        <v>2.4693666167612744</v>
+        <v>2.4693666167120467</v>
       </c>
       <c r="AQ2">
-        <v>-1.4615611087067222</v>
+        <v>-1.4615611087034994</v>
       </c>
       <c r="AR2">
-        <v>3.4939887080268308</v>
+        <v>3.4939887091093795</v>
       </c>
       <c r="AS2">
-        <v>2.4211509250714478</v>
+        <v>2.4211509256968085</v>
       </c>
       <c r="AT2">
-        <v>0.78109473522985284</v>
+        <v>0.78109473521565342</v>
       </c>
       <c r="AU2">
-        <v>0.71842780658504635</v>
+        <v>0.71842781036348347</v>
       </c>
       <c r="AV2">
-        <v>-0.63396941915265215</v>
+        <v>-0.63396941908991666</v>
       </c>
       <c r="AW2">
-        <v>9.7927277078994526E-2</v>
+        <v>9.7927277123810941E-2</v>
       </c>
       <c r="AX2">
-        <v>2.2851561810363057</v>
+        <v>2.2851561810231114</v>
       </c>
       <c r="AY2">
-        <v>3.4570750226215545</v>
+        <v>3.4570750226048101</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -653,154 +659,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>0.61676943240314208</v>
+      </c>
+      <c r="C3">
+        <v>0.27033095020388809</v>
+      </c>
+      <c r="D3">
+        <v>2.4916576722793056</v>
+      </c>
+      <c r="E3">
+        <v>2.6008399115212812</v>
+      </c>
+      <c r="F3">
+        <v>0.58891552974326655</v>
+      </c>
+      <c r="G3">
+        <v>1.7936975938959048</v>
+      </c>
+      <c r="H3">
+        <v>-1.1129199868883548</v>
+      </c>
+      <c r="I3">
+        <v>0.41271179231258542</v>
+      </c>
+      <c r="J3">
+        <v>2.2213400307359583</v>
+      </c>
+      <c r="K3">
+        <v>3.5629665205935543</v>
+      </c>
+      <c r="L3">
+        <v>2.1997183850015309</v>
+      </c>
+      <c r="M3">
+        <v>-1.2280106843664729</v>
+      </c>
+      <c r="N3">
         <v>0.9706601037273147</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-2.087878713081964</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>1.5630711246213049</v>
+      </c>
+      <c r="Q3">
+        <v>0.67439323544258634</v>
+      </c>
+      <c r="R3">
+        <v>-0.71566236437726283</v>
+      </c>
+      <c r="S3">
+        <v>2.5811924816713234</v>
+      </c>
+      <c r="T3">
+        <v>2.7493026639830429</v>
+      </c>
+      <c r="U3">
+        <v>1.3726176678767761</v>
+      </c>
+      <c r="V3">
+        <v>1.8815517971848397</v>
+      </c>
+      <c r="W3">
+        <v>-0.58669124386026961</v>
+      </c>
+      <c r="X3">
+        <v>-1.1475260242559153</v>
+      </c>
+      <c r="Y3">
+        <v>3.5483060040768137</v>
+      </c>
+      <c r="Z3">
+        <v>1.7868846375071912</v>
+      </c>
+      <c r="AA3">
+        <v>1.7899088222389736</v>
+      </c>
+      <c r="AB3">
+        <v>1.5258054499435905</v>
+      </c>
+      <c r="AC3">
+        <v>3.1923404924772907</v>
+      </c>
+      <c r="AD3">
+        <v>2.9637154069565295</v>
+      </c>
+      <c r="AE3">
+        <v>1.8275170366572298</v>
+      </c>
+      <c r="AF3">
+        <v>1.2729462841646442</v>
+      </c>
+      <c r="AG3">
+        <v>0.43781876425998001</v>
+      </c>
+      <c r="AH3">
+        <v>5.34788424152658E-2</v>
+      </c>
+      <c r="AI3">
+        <v>1.7982488273139103</v>
+      </c>
+      <c r="AJ3">
+        <v>2.5701790389098247</v>
+      </c>
+      <c r="AK3">
+        <v>1.7678943371663622</v>
+      </c>
+      <c r="AL3">
+        <v>1.0126748796028933</v>
+      </c>
+      <c r="AM3">
         <v>0.73228502515329164</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-2.561795311586474</v>
       </c>
-      <c r="F3">
-        <v>0.58891552971710626</v>
-      </c>
-      <c r="G3">
-        <v>1.7936975938268409</v>
-      </c>
-      <c r="H3">
-        <v>-1.1129199868808286</v>
-      </c>
-      <c r="I3">
-        <v>0.41271179231588634</v>
-      </c>
-      <c r="J3">
-        <v>2.2213400307101385</v>
-      </c>
-      <c r="K3">
-        <v>3.5629665205419734</v>
-      </c>
-      <c r="L3">
-        <v>2.1997183850089259</v>
-      </c>
-      <c r="M3">
-        <v>-1.2280438746337436</v>
-      </c>
-      <c r="N3">
-        <v>0.97066010373149014</v>
-      </c>
-      <c r="O3">
-        <v>-2.0878787132637111</v>
-      </c>
-      <c r="P3">
-        <v>1.5630711246004969</v>
-      </c>
-      <c r="Q3">
-        <v>0.67439323545527274</v>
-      </c>
-      <c r="R3">
-        <v>-0.71566236433457708</v>
-      </c>
-      <c r="S3">
-        <v>2.5811924816802332</v>
-      </c>
-      <c r="T3">
-        <v>2.7493026639447731</v>
-      </c>
-      <c r="U3">
-        <v>1.372617667861332</v>
-      </c>
-      <c r="V3">
-        <v>1.8815517975277278</v>
-      </c>
-      <c r="W3">
-        <v>-0.58669124403170148</v>
-      </c>
-      <c r="X3">
-        <v>-1.1475260242551495</v>
-      </c>
-      <c r="Y3">
-        <v>3.5483060040932579</v>
-      </c>
-      <c r="Z3">
-        <v>1.7868846374638012</v>
-      </c>
-      <c r="AA3">
-        <v>1.7899088222065416</v>
-      </c>
-      <c r="AB3">
-        <v>1.5258054499253417</v>
-      </c>
-      <c r="AC3">
-        <v>3.1923404923920513</v>
-      </c>
-      <c r="AD3">
-        <v>2.9637154069276734</v>
-      </c>
-      <c r="AE3">
-        <v>1.8275170367034923</v>
-      </c>
-      <c r="AF3">
-        <v>1.2729462841386849</v>
-      </c>
-      <c r="AG3">
-        <v>0.43781876424423283</v>
-      </c>
-      <c r="AH3">
-        <v>5.3478842287311285E-2</v>
-      </c>
-      <c r="AI3">
-        <v>1.7982488274504917</v>
-      </c>
-      <c r="AJ3">
-        <v>2.5701790388688073</v>
-      </c>
-      <c r="AK3">
-        <v>1.7678943371533524</v>
-      </c>
-      <c r="AL3">
-        <v>1.0126748796137937</v>
-      </c>
-      <c r="AM3">
-        <v>0.73228502519086458</v>
-      </c>
-      <c r="AN3">
-        <v>-2.5617953116227237</v>
-      </c>
       <c r="AO3">
-        <v>2.318115309437581</v>
+        <v>2.3181153092190114</v>
       </c>
       <c r="AP3">
-        <v>-0.20765407602978611</v>
+        <v>-0.20765407580135226</v>
       </c>
       <c r="AQ3">
-        <v>1.6914956341888185</v>
+        <v>1.6914956341777456</v>
       </c>
       <c r="AR3">
-        <v>4.7602721243356791</v>
+        <v>4.7602721245546924</v>
       </c>
       <c r="AS3">
-        <v>1.9636019169654684</v>
+        <v>1.9636019169167362</v>
       </c>
       <c r="AT3">
-        <v>1.5450192891257961</v>
+        <v>1.5450192892234669</v>
       </c>
       <c r="AU3">
-        <v>1.0790630552105018</v>
+        <v>1.0790630554518372</v>
       </c>
       <c r="AV3">
-        <v>-0.25459294132478483</v>
+        <v>-0.25459294117791037</v>
       </c>
       <c r="AW3">
-        <v>-0.44794427636978473</v>
+        <v>-0.44794427644903234</v>
       </c>
       <c r="AX3">
-        <v>1.4381767131228393</v>
+        <v>1.4381767131702292</v>
       </c>
       <c r="AY3">
-        <v>4.0974127899459276</v>
+        <v>4.0974127899335633</v>
       </c>
     </row>
   </sheetData>
